--- a/medicine/Enfance/Enfant_de_la_jungle/Enfant_de_la_jungle.xlsx
+++ b/medicine/Enfance/Enfant_de_la_jungle/Enfant_de_la_jungle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Enfant de la jungle (Running Wild) est un roman de Michael Morpurgo destiné à un public de pré-adolescents ou d'adolescents, publié pour la première fois à Londres en 2009.
@@ -513,7 +525,9 @@
           <t>Principaux personnages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Will
 Oona l'éléphante
@@ -551,7 +565,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le narrateur du roman est Will, un écolier anglais âgé de neuf ans. Lorsque son père est tué en Irak en 2004, ses grands-parents paternels offrent à leur belle-fille et à leur petit-fils un voyage en Indonésie. Quelques jours après leur arrivée, le tsunami du 26 décembre 2004 emporte tout sur son passage et provoque la mort de la mère de Will ainsi que celle de milliers de gens. Will est sauvé de la vague meurtrière par une éléphante, Oona (chapitres 1 et 2).
 Will va parcourir un périple à l'intérieur des terres, dans la jungle et la forêt vierge, se nourrissant principalement de fruits. Il rencontre divers animaux, dont des serpents et un tigre, et surtout un clan d'orangs-outans dont il va devenir l’ami. Vivant intégralement nu, il devient un « enfant de la jungle » (chapitres 3 à 5).
@@ -587,7 +603,9 @@
           <t>Autour du roman</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dans la postface de son roman, l'auteur indique qu'il a été influencé par une nouvelle de Rudyard Kipling, L'Enfant d'éléphant, tirée du recueil Histoires comme ça paru en 1902. Il dit aussi qu'il a été influencé par Le Livre de la jungle, du même Kipling.
 Le poème Le Tigre, de William Blake, est cité à plusieurs reprises dans le roman.</t>
